--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H2">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I2">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J2">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N2">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O2">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P2">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q2">
-        <v>7.764725140343001</v>
+        <v>62.895993979955</v>
       </c>
       <c r="R2">
-        <v>31.058900561372</v>
+        <v>377.37596387973</v>
       </c>
       <c r="S2">
-        <v>0.02721320059549711</v>
+        <v>0.257935769476283</v>
       </c>
       <c r="T2">
-        <v>0.01698243159725792</v>
+        <v>0.2127239240933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.4398805</v>
+        <v>28.9850325</v>
       </c>
       <c r="H3">
-        <v>150.879761</v>
+        <v>57.970065</v>
       </c>
       <c r="I3">
-        <v>0.712088134965885</v>
+        <v>0.345760989142131</v>
       </c>
       <c r="J3">
-        <v>0.6233963611410914</v>
+        <v>0.2610112048107918</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N3">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O3">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P3">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q3">
-        <v>163.7005675179603</v>
+        <v>21.4156202476575</v>
       </c>
       <c r="R3">
-        <v>982.2034051077621</v>
+        <v>85.66248099062999</v>
       </c>
       <c r="S3">
-        <v>0.5737249292080139</v>
+        <v>0.08782521966584803</v>
       </c>
       <c r="T3">
-        <v>0.5370506309093752</v>
+        <v>0.0482872807174917</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>75.4398805</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H4">
-        <v>150.879761</v>
+        <v>0.072031</v>
       </c>
       <c r="I4">
-        <v>0.712088134965885</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J4">
-        <v>0.6233963611410914</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N4">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O4">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P4">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q4">
-        <v>31.71435996309625</v>
+        <v>0.05210115878911111</v>
       </c>
       <c r="R4">
-        <v>126.857439852385</v>
+        <v>0.468910429102</v>
       </c>
       <c r="S4">
-        <v>0.1111500051623741</v>
+        <v>0.0002136662708146137</v>
       </c>
       <c r="T4">
-        <v>0.06936329863445825</v>
+        <v>0.0002643211970930944</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,51 +729,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02401033333333334</v>
+        <v>0.02401033333333333</v>
       </c>
       <c r="H5">
-        <v>0.07203100000000001</v>
+        <v>0.072031</v>
       </c>
       <c r="I5">
-        <v>0.0002266370700738657</v>
+        <v>0.0002864180539720152</v>
       </c>
       <c r="J5">
-        <v>0.0002976135632223991</v>
+        <v>0.0003243208040861459</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N5">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O5">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P5">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q5">
-        <v>0.002471287568666667</v>
+        <v>0.01774005879366666</v>
       </c>
       <c r="R5">
-        <v>0.014827725412</v>
+        <v>0.106440352762</v>
       </c>
       <c r="S5">
-        <v>8.661175137528893E-06</v>
+        <v>7.275178315740143E-05</v>
       </c>
       <c r="T5">
-        <v>8.107525636802178E-06</v>
+        <v>5.999960699305141E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,22 +785,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.02401033333333334</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H6">
-        <v>0.07203100000000001</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I6">
-        <v>0.0002266370700738657</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J6">
-        <v>0.0002976135632223991</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -815,27 +815,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O6">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P6">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q6">
-        <v>0.05210115878911113</v>
+        <v>6.702729341775777</v>
       </c>
       <c r="R6">
-        <v>0.4689104291020001</v>
+        <v>60.324564075982</v>
       </c>
       <c r="S6">
-        <v>0.0001826000611430911</v>
+        <v>0.02748781823709135</v>
       </c>
       <c r="T6">
-        <v>0.0002563915381270601</v>
+        <v>0.03400449211850262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,22 +847,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.02401033333333334</v>
+        <v>3.088890333333333</v>
       </c>
       <c r="H7">
-        <v>0.07203100000000001</v>
+        <v>9.266670999999999</v>
       </c>
       <c r="I7">
-        <v>0.0002266370700738657</v>
+        <v>0.03684721681802151</v>
       </c>
       <c r="J7">
-        <v>0.0002976135632223991</v>
+        <v>0.04172334397581277</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,33 +871,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N7">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O7">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P7">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q7">
-        <v>0.01009376405583333</v>
+        <v>2.282229711673666</v>
       </c>
       <c r="R7">
-        <v>0.060562584335</v>
+        <v>13.693378270042</v>
       </c>
       <c r="S7">
-        <v>3.537583379324578E-05</v>
+        <v>0.009359398580930158</v>
       </c>
       <c r="T7">
-        <v>3.311449945853681E-05</v>
+        <v>0.00771885185731014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4060085</v>
+      </c>
+      <c r="H8">
+        <v>0.812017</v>
+      </c>
+      <c r="I8">
+        <v>0.00484325489578502</v>
+      </c>
+      <c r="J8">
+        <v>0.003656120370002082</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>2.035881666666667</v>
-      </c>
-      <c r="H8">
-        <v>6.107645</v>
-      </c>
-      <c r="I8">
-        <v>0.0192169866842234</v>
-      </c>
-      <c r="J8">
-        <v>0.02523521804983228</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.102926</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N8">
-        <v>0.205852</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O8">
-        <v>0.03821605677617539</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P8">
-        <v>0.02724178813968781</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q8">
-        <v>0.2095451564233333</v>
+        <v>0.8810170618856668</v>
       </c>
       <c r="R8">
-        <v>1.25727093854</v>
+        <v>5.286102371314001</v>
       </c>
       <c r="S8">
-        <v>0.0007343974541912878</v>
+        <v>0.003613041139816264</v>
       </c>
       <c r="T8">
-        <v>0.0006874524637723567</v>
+        <v>0.002979735190403344</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.035881666666667</v>
+        <v>0.4060085</v>
       </c>
       <c r="H9">
-        <v>6.107645</v>
+        <v>0.812017</v>
       </c>
       <c r="I9">
-        <v>0.0192169866842234</v>
+        <v>0.00484325489578502</v>
       </c>
       <c r="J9">
-        <v>0.02523521804983228</v>
+        <v>0.003656120370002082</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.169947333333333</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N9">
-        <v>6.509842000000001</v>
+        <v>1.477702</v>
       </c>
       <c r="O9">
-        <v>0.8056937070514454</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P9">
-        <v>0.8614914433031574</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q9">
-        <v>4.417755993565556</v>
+        <v>0.2999797862335</v>
       </c>
       <c r="R9">
-        <v>39.75980394209</v>
+        <v>1.199919144934</v>
       </c>
       <c r="S9">
-        <v>0.01548300523997021</v>
+        <v>0.001230213755968756</v>
       </c>
       <c r="T9">
-        <v>0.02173992441981991</v>
+        <v>0.0006763851795987371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.035881666666667</v>
+        <v>47.35541733333333</v>
       </c>
       <c r="H10">
-        <v>6.107645</v>
+        <v>142.066252</v>
       </c>
       <c r="I10">
-        <v>0.0192169866842234</v>
+        <v>0.564900382237341</v>
       </c>
       <c r="J10">
-        <v>0.02523521804983228</v>
+        <v>0.6396557188175235</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4203924999999999</v>
+        <v>2.169947333333333</v>
       </c>
       <c r="N10">
-        <v>0.8407849999999999</v>
+        <v>6.509842000000001</v>
       </c>
       <c r="O10">
-        <v>0.1560902361723793</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P10">
-        <v>0.1112667685571547</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q10">
-        <v>0.8558693835541665</v>
+        <v>102.7587615613538</v>
       </c>
       <c r="R10">
-        <v>5.135216301324999</v>
+        <v>924.8288540521841</v>
       </c>
       <c r="S10">
-        <v>0.002999583990061898</v>
+        <v>0.4214125345122122</v>
       </c>
       <c r="T10">
-        <v>0.002807841166240021</v>
+        <v>0.521318901516975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>47.35541733333333</v>
+      </c>
+      <c r="H11">
+        <v>142.066252</v>
+      </c>
+      <c r="I11">
+        <v>0.564900382237341</v>
+      </c>
+      <c r="J11">
+        <v>0.6396557188175235</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.3568225</v>
-      </c>
-      <c r="H11">
-        <v>0.7136450000000001</v>
-      </c>
-      <c r="I11">
-        <v>0.00336810009314456</v>
-      </c>
-      <c r="J11">
-        <v>0.002948597566684469</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.102926</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N11">
-        <v>0.205852</v>
+        <v>1.477702</v>
       </c>
       <c r="O11">
-        <v>0.03821605677617539</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P11">
-        <v>0.02724178813968781</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q11">
-        <v>0.03672631263500001</v>
+        <v>34.98859745215066</v>
       </c>
       <c r="R11">
-        <v>0.14690525054</v>
+        <v>209.931584712904</v>
       </c>
       <c r="S11">
-        <v>0.0001287155043874541</v>
+        <v>0.1434878477251287</v>
       </c>
       <c r="T11">
-        <v>8.032507022081729E-05</v>
+        <v>0.1183368173005484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3568225</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H12">
-        <v>0.7136450000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I12">
-        <v>0.00336810009314456</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J12">
-        <v>0.002948597566684469</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1187,27 +1187,27 @@
         <v>6.509842000000001</v>
       </c>
       <c r="O12">
-        <v>0.8056937070514454</v>
+        <v>0.7459944226682381</v>
       </c>
       <c r="P12">
-        <v>0.8614914433031574</v>
+        <v>0.8149992037602547</v>
       </c>
       <c r="Q12">
-        <v>0.7742860323483335</v>
+        <v>8.615383849848444</v>
       </c>
       <c r="R12">
-        <v>4.645716194090001</v>
+        <v>77.53845464863601</v>
       </c>
       <c r="S12">
-        <v>0.00271365704976596</v>
+        <v>0.03533159303202079</v>
       </c>
       <c r="T12">
-        <v>0.002540191573443181</v>
+        <v>0.04370782964398065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3568225</v>
+        <v>3.970319333333333</v>
       </c>
       <c r="H13">
-        <v>0.7136450000000001</v>
+        <v>11.910958</v>
       </c>
       <c r="I13">
-        <v>0.00336810009314456</v>
+        <v>0.04736173885274959</v>
       </c>
       <c r="J13">
-        <v>0.002948597566684469</v>
+        <v>0.05362929122178384</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,400 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4203924999999999</v>
+        <v>0.7388509999999999</v>
       </c>
       <c r="N13">
-        <v>0.8407849999999999</v>
+        <v>1.477702</v>
       </c>
       <c r="O13">
-        <v>0.1560902361723793</v>
+        <v>0.2540055773317618</v>
       </c>
       <c r="P13">
-        <v>0.1112667685571547</v>
+        <v>0.1850007962397452</v>
       </c>
       <c r="Q13">
-        <v>0.15000550283125</v>
+        <v>2.933474409752666</v>
       </c>
       <c r="R13">
-        <v>0.600022011325</v>
+        <v>17.600846458516</v>
       </c>
       <c r="S13">
-        <v>0.0005257275389911471</v>
+        <v>0.01203014582072879</v>
       </c>
       <c r="T13">
-        <v>0.0003280809230204703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>26.255634</v>
-      </c>
-      <c r="H14">
-        <v>78.766902</v>
-      </c>
-      <c r="I14">
-        <v>0.2478307935205024</v>
-      </c>
-      <c r="J14">
-        <v>0.3254445775875597</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.102926</v>
-      </c>
-      <c r="N14">
-        <v>0.205852</v>
-      </c>
-      <c r="O14">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P14">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q14">
-        <v>2.702387385084</v>
-      </c>
-      <c r="R14">
-        <v>16.214324310504</v>
-      </c>
-      <c r="S14">
-        <v>0.009471115676064122</v>
-      </c>
-      <c r="T14">
-        <v>0.008865692233850491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>26.255634</v>
-      </c>
-      <c r="H15">
-        <v>78.766902</v>
-      </c>
-      <c r="I15">
-        <v>0.2478307935205024</v>
-      </c>
-      <c r="J15">
-        <v>0.3254445775875597</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N15">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P15">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q15">
-        <v>56.97334298327601</v>
-      </c>
-      <c r="R15">
-        <v>512.7600868494841</v>
-      </c>
-      <c r="S15">
-        <v>0.1996757107530349</v>
-      </c>
-      <c r="T15">
-        <v>0.2803677188610932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>26.255634</v>
-      </c>
-      <c r="H16">
-        <v>78.766902</v>
-      </c>
-      <c r="I16">
-        <v>0.2478307935205024</v>
-      </c>
-      <c r="J16">
-        <v>0.3254445775875597</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P16">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q16">
-        <v>11.037671616345</v>
-      </c>
-      <c r="R16">
-        <v>66.22602969806999</v>
-      </c>
-      <c r="S16">
-        <v>0.0386839670914034</v>
-      </c>
-      <c r="T16">
-        <v>0.03621116649261598</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.829545333333334</v>
-      </c>
-      <c r="H17">
-        <v>5.488636000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.0172693476661707</v>
-      </c>
-      <c r="J17">
-        <v>0.02267763209160966</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.102926</v>
-      </c>
-      <c r="N17">
-        <v>0.205852</v>
-      </c>
-      <c r="O17">
-        <v>0.03821605677617539</v>
-      </c>
-      <c r="P17">
-        <v>0.02724178813968781</v>
-      </c>
-      <c r="Q17">
-        <v>0.1883077829786667</v>
-      </c>
-      <c r="R17">
-        <v>1.129846697872</v>
-      </c>
-      <c r="S17">
-        <v>0.0006599663708978916</v>
-      </c>
-      <c r="T17">
-        <v>0.0006177792489494156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.829545333333334</v>
-      </c>
-      <c r="H18">
-        <v>5.488636000000001</v>
-      </c>
-      <c r="I18">
-        <v>0.0172693476661707</v>
-      </c>
-      <c r="J18">
-        <v>0.02267763209160966</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>2.169947333333333</v>
-      </c>
-      <c r="N18">
-        <v>6.509842000000001</v>
-      </c>
-      <c r="O18">
-        <v>0.8056937070514454</v>
-      </c>
-      <c r="P18">
-        <v>0.8614914433031574</v>
-      </c>
-      <c r="Q18">
-        <v>3.970017017279112</v>
-      </c>
-      <c r="R18">
-        <v>35.73015315551201</v>
-      </c>
-      <c r="S18">
-        <v>0.0139138047395173</v>
-      </c>
-      <c r="T18">
-        <v>0.01953658600129881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.829545333333334</v>
-      </c>
-      <c r="H19">
-        <v>5.488636000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.0172693476661707</v>
-      </c>
-      <c r="J19">
-        <v>0.02267763209160966</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.4203924999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.8407849999999999</v>
-      </c>
-      <c r="O19">
-        <v>0.1560902361723793</v>
-      </c>
-      <c r="P19">
-        <v>0.1112667685571547</v>
-      </c>
-      <c r="Q19">
-        <v>0.7691271365433333</v>
-      </c>
-      <c r="R19">
-        <v>4.61476281926</v>
-      </c>
-      <c r="S19">
-        <v>0.002695576555755512</v>
-      </c>
-      <c r="T19">
-        <v>0.002523266841361436</v>
+        <v>0.009921461577803192</v>
       </c>
     </row>
   </sheetData>
